--- a/public/assets/mlm/brownpayout.xlsx
+++ b/public/assets/mlm/brownpayout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="207">
   <si>
     <t xml:space="preserve">FullName</t>
   </si>
@@ -184,21 +184,6 @@
     <t xml:space="preserve">060000672018</t>
   </si>
   <si>
-    <t xml:space="preserve">Irine Santos Chua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">952354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irine  Chua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4162970000164699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060000863013</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jakov  Redulla</t>
   </si>
   <si>
@@ -505,18 +490,6 @@
     <t xml:space="preserve">060000635023</t>
   </si>
   <si>
-    <t xml:space="preserve">ALVIN JAVIER KO  JR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">572162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4162970000092916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060000857015</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALVIN MATHEW  ZAMORA  DEE</t>
   </si>
   <si>
@@ -575,18 +548,6 @@
   </si>
   <si>
     <t xml:space="preserve">060000902019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARRY  CANE  SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4162970000092841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060000989016</t>
   </si>
   <si>
     <t xml:space="preserve">JOEL  MANALUS  ESPIRITU</t>
@@ -691,11 +652,12 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -713,51 +675,85 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -771,6 +767,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -868,50 +870,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1008,15 +1046,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
@@ -1429,28 +1468,28 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4555</v>
+        <v>4333</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" s="4" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="J11" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1467,31 +1506,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>4411</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>4333</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>2000</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="J12" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1508,29 +1545,31 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>4689</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>4411</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="n">
+        <v>500</v>
+      </c>
       <c r="I13" s="4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1547,31 +1586,31 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>4781</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>4689</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" s="4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>500</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1588,16 +1627,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>4499</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>4781</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>73</v>
@@ -1606,13 +1645,13 @@
         <v>74</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="J15" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1632,7 +1671,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4499</v>
+        <v>4505</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>76</v>
@@ -1649,11 +1688,9 @@
       <c r="G16" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>8000</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4" t="n">
-        <v>8500</v>
+        <v>500</v>
       </c>
       <c r="J16" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1673,26 +1710,28 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4505</v>
+        <v>4770</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>1000</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1500</v>
+      </c>
       <c r="I17" s="4" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="J17" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1709,31 +1748,31 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4612</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>4770</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="G18" s="4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="J18" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1750,31 +1789,31 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4620</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>4612</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G19" s="4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>3000</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <v>3500</v>
       </c>
       <c r="J19" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1791,31 +1830,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1832,31 +1871,29 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>4621</v>
+        <v>4611</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>1000</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="J21" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1873,16 +1910,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>4753</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>4611</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>101</v>
@@ -1890,12 +1927,14 @@
       <c r="F22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="n">
+        <v>500</v>
+      </c>
       <c r="H22" s="4" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>11000</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1915,19 +1954,19 @@
         <v>103</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>4753</v>
+        <v>4446</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>500</v>
@@ -1953,31 +1992,31 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>4441</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>4446</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="G24" s="4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>500</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1000</v>
+        <v>23500</v>
       </c>
       <c r="J24" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -1994,31 +2033,31 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>4443</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>4441</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G25" s="4" t="n">
-        <v>1000</v>
+        <v>6500</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>23500</v>
+        <v>26000</v>
       </c>
       <c r="J25" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2035,31 +2074,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>4443</v>
+        <v>4203</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="G26" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H26" s="4" t="n">
         <v>6500</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>19500</v>
-      </c>
       <c r="I26" s="4" t="n">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="J26" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2076,31 +2115,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>4631</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>4203</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G27" s="4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="J27" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2117,31 +2156,31 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>4614</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>4631</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G28" s="4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>4500</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="J28" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2158,16 +2197,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>4404</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>4614</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>129</v>
@@ -2175,14 +2214,12 @@
       <c r="F29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="4" t="n">
-        <v>1500</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="J29" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2202,26 +2239,28 @@
         <v>131</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>4404</v>
+        <v>4354</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="n">
+        <v>2000</v>
+      </c>
       <c r="H30" s="4" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="J30" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2238,16 +2277,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>4445</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>4354</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>138</v>
@@ -2256,13 +2295,13 @@
         <v>139</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="J31" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2282,28 +2321,28 @@
         <v>140</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>4445</v>
+        <v>4740</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G32" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>1500</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>2500</v>
       </c>
       <c r="J32" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2320,31 +2359,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4729</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>4740</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="G33" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>500</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="J33" s="5" t="e">
         <f aca="false">1000%/100</f>
@@ -2361,27 +2398,27 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>4346</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>4729</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="n">
+        <v>500</v>
+      </c>
       <c r="I34" s="4" t="n">
         <v>500</v>
       </c>
@@ -2400,32 +2437,34 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>4248</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>4346</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="n">
+        <v>1000</v>
+      </c>
       <c r="H35" s="4" t="n">
         <v>500</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="J35" s="5" t="e">
-        <f aca="false">1000%/100</f>
+        <f aca="false">3200%/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K35" s="4" t="e">
@@ -2439,31 +2478,31 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>4219</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>4248</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G36" s="4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>500</v>
+        <v>13000</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="J36" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2480,31 +2519,31 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>4226</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>4222</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="J37" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2521,31 +2560,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>4297</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>4219</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="G38" s="4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="J38" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2562,31 +2601,31 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>4224</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>4226</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="J39" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2603,31 +2642,31 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>4252</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>4297</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="G40" s="4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>500</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="J40" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2644,31 +2683,31 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>4239</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>4224</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="J41" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2685,31 +2724,29 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>4287</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>4252</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G42" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>500</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="J42" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2726,31 +2763,31 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4253</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>4218</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>17000</v>
+        <v>500</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="J43" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2767,22 +2804,22 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>4228</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>4239</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1000</v>
@@ -2808,29 +2845,29 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>4257</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>4287</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="n">
+        <v>3000</v>
+      </c>
       <c r="I45" s="4" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="J45" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2847,31 +2884,31 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>4613</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>4253</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="J46" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2888,31 +2925,31 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>4246</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>4228</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="H47" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="I47" s="4" t="n">
         <v>1500</v>
-      </c>
-      <c r="I47" s="4" t="n">
-        <v>2500</v>
       </c>
       <c r="J47" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2929,29 +2966,31 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>4233</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>4257</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="n">
+        <v>1000</v>
+      </c>
       <c r="H48" s="4" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J48" s="5" t="e">
         <f aca="false">3200%/100</f>
@@ -2963,129 +3002,6 @@
       </c>
       <c r="L48" s="4" t="e">
         <f aca="false">I48-K48</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>4613</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="4" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>7000</v>
-      </c>
-      <c r="J49" s="5" t="e">
-        <f aca="false">3200%/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K49" s="4" t="e">
-        <f aca="false">I49*J49</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L49" s="4" t="e">
-        <f aca="false">I49-K49</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>4246</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H50" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J50" s="5" t="e">
-        <f aca="false">3200%/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K50" s="4" t="e">
-        <f aca="false">I50*J50</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L50" s="4" t="e">
-        <f aca="false">I50-K50</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>4233</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H51" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="I51" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J51" s="5" t="e">
-        <f aca="false">3200%/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K51" s="4" t="e">
-        <f aca="false">I51*J51</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L51" s="4" t="e">
-        <f aca="false">I51-K51</f>
         <v>#NAME?</v>
       </c>
     </row>
